--- a/uploads/MHO - Md. Mushfiqul Haque Omi.xlsx
+++ b/uploads/MHO - Md. Mushfiqul Haque Omi.xlsx
@@ -694,9 +694,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="J15" s="8"/>
       <c r="K15" s="7"/>
       <c r="L15" s="9"/>
       <c r="M15" s="7"/>
@@ -742,7 +740,9 @@
         <v>24</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6" t="s">
         <v>25</v>
